--- a/Db_instructions.xlsx
+++ b/Db_instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Desktop\Uni\Master\TFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Desktop\Uni\Master\TFM\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB578B6-EF81-4E34-AF1B-1B7AA2602A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3967CF3-2475-48B9-B498-9B7D2491E72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,12 +95,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Perturbation_type_1</t>
-  </si>
-  <si>
-    <t>Perturbation_type_2</t>
-  </si>
-  <si>
     <t>Citation of the publication</t>
   </si>
   <si>
@@ -182,15 +176,6 @@
     <t>Number_of_replicates_post</t>
   </si>
   <si>
-    <t>Perturbation_date_day</t>
-  </si>
-  <si>
-    <t>Perturbation_date_month</t>
-  </si>
-  <si>
-    <t>Perturbation_date_year</t>
-  </si>
-  <si>
     <t>Time_interval_type</t>
   </si>
   <si>
@@ -198,9 +183,6 @@
   </si>
   <si>
     <t>Time_between_samplings_months</t>
-  </si>
-  <si>
-    <t>Perturbation_type_3</t>
   </si>
   <si>
     <t>Data_acquisition</t>
@@ -290,15 +272,6 @@
     <t>Number of replicates in the post-disturbance sampling</t>
   </si>
   <si>
-    <t>Day in which the perturbation occurred</t>
-  </si>
-  <si>
-    <t>Month  in which the perturbation occurred</t>
-  </si>
-  <si>
-    <t>Year  in which the perturbation occurred</t>
-  </si>
-  <si>
     <t>Anthropogenic or natural</t>
   </si>
   <si>
@@ -308,15 +281,6 @@
     <t>Direct or indirect</t>
   </si>
   <si>
-    <t>Perturbation details</t>
-  </si>
-  <si>
-    <t>Months elapsed between the perturbation and the post-disturbance sampling or between the pre-disturbance sampling and the post-disturbance sampling</t>
-  </si>
-  <si>
-    <t>Time after perturbation or time between samplings</t>
-  </si>
-  <si>
     <t>Effect size</t>
   </si>
   <si>
@@ -354,13 +318,49 @@
   </si>
   <si>
     <t>Measure of taxonomic diversity used</t>
+  </si>
+  <si>
+    <t>Disturbance_date_day</t>
+  </si>
+  <si>
+    <t>Disturbance_date_month</t>
+  </si>
+  <si>
+    <t>Disturbance_date_year</t>
+  </si>
+  <si>
+    <t>Disturbance_type_1</t>
+  </si>
+  <si>
+    <t>Disturbance_type_2</t>
+  </si>
+  <si>
+    <t>Disturbance_type_3</t>
+  </si>
+  <si>
+    <t>Day in which the disturbance occurred</t>
+  </si>
+  <si>
+    <t>Month  in which the disturbance occurred</t>
+  </si>
+  <si>
+    <t>Year  in which the disturbance occurred</t>
+  </si>
+  <si>
+    <t>Time after disturbance or time between samplings</t>
+  </si>
+  <si>
+    <t>Months elapsed between the disturbance and the post-disturbance sampling or between the pre-disturbance sampling and the post-disturbance sampling</t>
+  </si>
+  <si>
+    <t>Disturbance details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,13 +370,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -417,17 +410,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -722,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4696B8A-B73E-401B-80FD-66F4612895D5}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,34 +725,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>72</v>
+      <c r="B3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -771,7 +760,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -779,418 +768,399 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3"/>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
+      <c r="B13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>94</v>
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>98</v>
+      <c r="B22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="B47" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>86</v>
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>87</v>
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
